--- a/pypimm/overall-report.xlsx
+++ b/pypimm/overall-report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>a</t>
   </si>
@@ -22,10 +22,22 @@
     <t>b</t>
   </si>
   <si>
+    <t>damping</t>
+  </si>
+  <si>
+    <t>hs</t>
+  </si>
+  <si>
     <t>test set a</t>
   </si>
   <si>
+    <t>[1, 2, 3]</t>
+  </si>
+  <si>
     <t>test set a (1)</t>
+  </si>
+  <si>
+    <t>[4, 5, 6]</t>
   </si>
 </sst>
 </file>
@@ -379,7 +391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -387,34 +399,52 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c s="1" t="s" r="B1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c s="1" t="s" r="C1">
         <v>1</v>
       </c>
+      <c s="1" t="s" r="D1">
+        <v>2</v>
+      </c>
+      <c s="1" t="s" r="E1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5">
+      <c s="1" t="s" r="A2">
+        <v>4</v>
+      </c>
+      <c t="n" r="B2">
+        <v>1</v>
+      </c>
+      <c t="n" r="C2">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
+      <c t="s" r="D2">
+        <v>5</v>
+      </c>
+      <c t="s" r="E2">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5">
+      <c s="1" t="s" r="A3">
+        <v>6</v>
+      </c>
+      <c t="n" r="B3">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
+      <c t="n" r="C3">
         <v>4</v>
+      </c>
+      <c t="s" r="D3">
+        <v>7</v>
+      </c>
+      <c t="s" r="E3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
